--- a/papers/bottom_up.xlsx
+++ b/papers/bottom_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Translators\translator\papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\translator\papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="72">
   <si>
     <t>int</t>
   </si>
@@ -208,12 +207,45 @@
   </si>
   <si>
     <t>LAB</t>
+  </si>
+  <si>
+    <t>&lt;decL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;dec&gt;</t>
+  </si>
+  <si>
+    <t>&lt;varL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;opL&gt;</t>
+  </si>
+  <si>
+    <t>&lt;op&gt;</t>
+  </si>
+  <si>
+    <t>&lt;conSt&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ass&gt;</t>
+  </si>
+  <si>
+    <t>&lt;exp&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rel&gt;</t>
+  </si>
+  <si>
+    <t>&lt;relSgn&gt;</t>
+  </si>
+  <si>
+    <t>&lt;pr&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
@@ -231,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -274,11 +306,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,9 +397,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,9 +430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -434,7 +542,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,33 +694,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.88671875" style="2"/>
-    <col min="21" max="21" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -627,24 +735,19 @@
     <col min="33" max="33" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="2.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="42" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="2.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="2.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="2.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="2.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="2.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="3.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="4.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="5" style="2" bestFit="1" customWidth="1"/>
@@ -653,26 +756,26 @@
   <sheetData>
     <row r="1" spans="1:62" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
-      <c r="B1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
+      <c r="B1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>42</v>
@@ -684,13 +787,13 @@
         <v>44</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>47</v>
@@ -708,10 +811,10 @@
         <v>55</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>0</v>
@@ -875,6 +978,12 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -889,7 +998,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="Y7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -899,6 +1020,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="AK8" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -906,6 +1030,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="AO9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -913,6 +1040,9 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="AP10" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -941,6 +1071,27 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="U14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BB14" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -948,6 +1099,12 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="AY15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -956,56 +1113,70 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="AI17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="BD18" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:62" s="4" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>19</v>
       </c>
@@ -1015,277 +1186,355 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="BJ26" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="AO27" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="AP28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="BH29" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="N31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AL32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q34" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AL35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N40" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="BH41" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="BH42" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O49" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="O50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="P52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="R55" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="S57" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="Q58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AM60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="AL62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
